--- a/Ceph/rados bench.xlsx
+++ b/Ceph/rados bench.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Studied_in_NOSLab\Ceph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60D48F0-39AB-465D-AEAF-D457545E31D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A03E9-D551-42E2-9316-5FF4207F10DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80D8DAFA-43CE-4385-8FD2-BDFA35D505DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5244,542 +5241,6 @@
                 <a:r>
                   <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
                   <a:t> of OSDs</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44691127916152046"/>
-              <c:y val="0.94259840481819135"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104654511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="0"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104654511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="14"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Bandwidth</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.4642789753648436E-2"/>
-              <c:y val="0.39440666440338112"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104661167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23202032908047465"/>
-          <c:y val="0.1142400584564848"/>
-          <c:w val="0.61035390579934412"/>
-          <c:h val="7.5969018228550872E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13107235033663756"/>
-          <c:y val="8.4387860928348407E-2"/>
-          <c:w val="0.8125715069977768"/>
-          <c:h val="0.78316411935774433"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$206</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Write Bandwidth (MB/sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$E$196,Sheet1!$E$160,Sheet1!$E$230)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Samsung SSD 860 x 4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Samsung SSD 850 + Samsung SSD 980 PRO 250G + Samsung SSD 980 PRO 1TB x 2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1 HDD + Samsung SSD 860 x 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$P$206,Sheet1!$U$170,Sheet1!$P$240)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.6904099999999982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3717133333333331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4724799999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2532-4E90-B5E3-21B8565B3E59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$186</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Read Bandwidth (MB/sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$E$196,Sheet1!$E$160,Sheet1!$E$230)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Samsung SSD 860 x 4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Samsung SSD 850 + Samsung SSD 980 PRO 250G + Samsung SSD 980 PRO 1TB x 2 </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1 HDD + Samsung SSD 860 x 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$P$220,Sheet1!$U$186,Sheet1!$P$254)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10.279166666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.275533333333334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.275233333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2532-4E90-B5E3-21B8565B3E59}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104661167"/>
-        <c:axId val="104654511"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104661167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>OSD</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Configuration</a:t>
                 </a:r>
                 <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
@@ -12687,46 +12148,6 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14119,522 +13540,6 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19799,212 +18704,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>373825</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>70758</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="23" name="차트 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACD5DE7-FA5C-4660-98DD-571D40F0564B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="샘플 직접추가"/>
-      <sheetName val="자동화"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="88">
-          <cell r="W88" t="str">
-            <v>오리지널</v>
-          </cell>
-          <cell r="X88" t="str">
-            <v>V1</v>
-          </cell>
-          <cell r="Y88" t="str">
-            <v>V2</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="V89">
-            <v>1</v>
-          </cell>
-          <cell r="W89">
-            <v>0.13878441999999999</v>
-          </cell>
-          <cell r="X89">
-            <v>0.12885246</v>
-          </cell>
-          <cell r="Y89">
-            <v>0.12747453</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="V90">
-            <v>2</v>
-          </cell>
-          <cell r="W90">
-            <v>1.1932780999999999E-7</v>
-          </cell>
-          <cell r="X90">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y90">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="V91">
-            <v>3</v>
-          </cell>
-          <cell r="W91">
-            <v>1.1928519E-7</v>
-          </cell>
-          <cell r="X91">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y91">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="V92">
-            <v>4</v>
-          </cell>
-          <cell r="W92">
-            <v>1.1926420000000001E-7</v>
-          </cell>
-          <cell r="X92">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y92">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="V93">
-            <v>5</v>
-          </cell>
-          <cell r="W93">
-            <v>1.1925113999999999E-7</v>
-          </cell>
-          <cell r="X93">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y93">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="V94">
-            <v>6</v>
-          </cell>
-          <cell r="W94">
-            <v>1.1926420000000001E-7</v>
-          </cell>
-          <cell r="X94">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y94">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="V95">
-            <v>7</v>
-          </cell>
-          <cell r="W95">
-            <v>1.1924281E-7</v>
-          </cell>
-          <cell r="X95">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y95">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="V96">
-            <v>8</v>
-          </cell>
-          <cell r="W96">
-            <v>1.1923322E-7</v>
-          </cell>
-          <cell r="X96">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y96">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="V97">
-            <v>9</v>
-          </cell>
-          <cell r="W97">
-            <v>1.1923011799999999E-7</v>
-          </cell>
-          <cell r="X97">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y97">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="V98">
-            <v>10</v>
-          </cell>
-          <cell r="W98">
-            <v>1.1322785E-7</v>
-          </cell>
-          <cell r="X98">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-          <cell r="Y98">
-            <v>1.1920929000000001E-7</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20306,8 +19006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF969ED-AFAC-40DE-9C4A-1EE07359AD41}">
   <dimension ref="B1:BJ280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L267" sqref="L267"/>
+    <sheetView tabSelected="1" topLeftCell="R203" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS233" sqref="AR233:AS233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -29638,7 +28338,7 @@
         <v>13.234</v>
       </c>
       <c r="F145" s="26">
-        <f>AVERAGE(C145:E145)</f>
+        <f t="shared" ref="F145:F153" si="32">AVERAGE(C145:E145)</f>
         <v>26.361599999999996</v>
       </c>
       <c r="G145" s="16"/>
@@ -29652,7 +28352,7 @@
         <v>31.235700000000001</v>
       </c>
       <c r="K145" s="26">
-        <f>AVERAGE(H145:J145)</f>
+        <f t="shared" ref="K145:K153" si="33">AVERAGE(H145:J145)</f>
         <v>30.689766666666667</v>
       </c>
       <c r="L145" s="16"/>
@@ -29666,7 +28366,7 @@
         <v>30.328600000000002</v>
       </c>
       <c r="P145" s="26">
-        <f>AVERAGE(M145:O145)</f>
+        <f t="shared" ref="P145:P153" si="34">AVERAGE(M145:O145)</f>
         <v>30.586866666666669</v>
       </c>
       <c r="Q145" s="16"/>
@@ -29680,7 +28380,7 @@
         <v>47.125</v>
       </c>
       <c r="U145" s="26">
-        <f>AVERAGE(R145:T145)</f>
+        <f t="shared" ref="U145:U153" si="35">AVERAGE(R145:T145)</f>
         <v>46.351333333333336</v>
       </c>
       <c r="V145" s="16"/>
@@ -29694,7 +28394,7 @@
         <v>51.720500000000001</v>
       </c>
       <c r="Z145" s="26">
-        <f>AVERAGE(W145:Y145)</f>
+        <f t="shared" ref="Z145:Z153" si="36">AVERAGE(W145:Y145)</f>
         <v>51.781100000000002</v>
       </c>
       <c r="AA145" s="16"/>
@@ -29708,7 +28408,7 @@
         <v>53.948</v>
       </c>
       <c r="AE145" s="32">
-        <f>AVERAGE(AB145:AD145)</f>
+        <f t="shared" ref="AE145:AE153" si="37">AVERAGE(AB145:AD145)</f>
         <v>53.965633333333336</v>
       </c>
     </row>
@@ -29726,7 +28426,7 @@
         <v>34817</v>
       </c>
       <c r="F146" s="26">
-        <f>AVERAGE(C146:E146)</f>
+        <f t="shared" si="32"/>
         <v>34817</v>
       </c>
       <c r="G146" s="16"/>
@@ -29740,7 +28440,7 @@
         <v>77923</v>
       </c>
       <c r="K146" s="26">
-        <f>AVERAGE(H146:J146)</f>
+        <f t="shared" si="33"/>
         <v>77923</v>
       </c>
       <c r="L146" s="16"/>
@@ -29754,7 +28454,7 @@
         <v>77835</v>
       </c>
       <c r="P146" s="26">
-        <f>AVERAGE(M146:O146)</f>
+        <f t="shared" si="34"/>
         <v>77835</v>
       </c>
       <c r="Q146" s="16"/>
@@ -29768,7 +28468,7 @@
         <v>121031</v>
       </c>
       <c r="U146" s="26">
-        <f>AVERAGE(R146:T146)</f>
+        <f t="shared" si="35"/>
         <v>121031</v>
       </c>
       <c r="V146" s="16"/>
@@ -29782,7 +28482,7 @@
         <v>136157</v>
       </c>
       <c r="Z146" s="26">
-        <f>AVERAGE(W146:Y146)</f>
+        <f t="shared" si="36"/>
         <v>136157</v>
       </c>
       <c r="AA146" s="16"/>
@@ -29796,7 +28496,7 @@
         <v>142092</v>
       </c>
       <c r="AE146" s="32">
-        <f>AVERAGE(AB146:AD146)</f>
+        <f t="shared" si="37"/>
         <v>142092</v>
       </c>
     </row>
@@ -29814,7 +28514,7 @@
         <v>4096</v>
       </c>
       <c r="F147" s="26">
-        <f>AVERAGE(C147:E147)</f>
+        <f t="shared" si="32"/>
         <v>4096</v>
       </c>
       <c r="G147" s="16"/>
@@ -29828,7 +28528,7 @@
         <v>4096</v>
       </c>
       <c r="K147" s="26">
-        <f>AVERAGE(H147:J147)</f>
+        <f t="shared" si="33"/>
         <v>4096</v>
       </c>
       <c r="L147" s="16"/>
@@ -29842,7 +28542,7 @@
         <v>4096</v>
       </c>
       <c r="P147" s="26">
-        <f>AVERAGE(M147:O147)</f>
+        <f t="shared" si="34"/>
         <v>4096</v>
       </c>
       <c r="Q147" s="16"/>
@@ -29856,7 +28556,7 @@
         <v>4096</v>
       </c>
       <c r="U147" s="26">
-        <f>AVERAGE(R147:T147)</f>
+        <f t="shared" si="35"/>
         <v>4096</v>
       </c>
       <c r="V147" s="16"/>
@@ -29870,7 +28570,7 @@
         <v>4096</v>
       </c>
       <c r="Z147" s="26">
-        <f>AVERAGE(W147:Y147)</f>
+        <f t="shared" si="36"/>
         <v>4096</v>
       </c>
       <c r="AA147" s="16"/>
@@ -29884,7 +28584,7 @@
         <v>4096</v>
       </c>
       <c r="AE147" s="32">
-        <f>AVERAGE(AB147:AD147)</f>
+        <f t="shared" si="37"/>
         <v>4096</v>
       </c>
     </row>
@@ -29902,7 +28602,7 @@
         <v>4096</v>
       </c>
       <c r="F148" s="26">
-        <f>AVERAGE(C148:E148)</f>
+        <f t="shared" si="32"/>
         <v>4096</v>
       </c>
       <c r="G148" s="16"/>
@@ -29916,7 +28616,7 @@
         <v>4096</v>
       </c>
       <c r="K148" s="26">
-        <f>AVERAGE(H148:J148)</f>
+        <f t="shared" si="33"/>
         <v>4096</v>
       </c>
       <c r="L148" s="16"/>
@@ -29930,7 +28630,7 @@
         <v>4096</v>
       </c>
       <c r="P148" s="26">
-        <f>AVERAGE(M148:O148)</f>
+        <f t="shared" si="34"/>
         <v>4096</v>
       </c>
       <c r="Q148" s="16"/>
@@ -29944,7 +28644,7 @@
         <v>4096</v>
       </c>
       <c r="U148" s="26">
-        <f>AVERAGE(R148:T148)</f>
+        <f t="shared" si="35"/>
         <v>4096</v>
       </c>
       <c r="V148" s="16"/>
@@ -29958,7 +28658,7 @@
         <v>4096</v>
       </c>
       <c r="Z148" s="26">
-        <f>AVERAGE(W148:Y148)</f>
+        <f t="shared" si="36"/>
         <v>4096</v>
       </c>
       <c r="AA148" s="16"/>
@@ -29972,7 +28672,7 @@
         <v>4096</v>
       </c>
       <c r="AE148" s="32">
-        <f>AVERAGE(AB148:AD148)</f>
+        <f t="shared" si="37"/>
         <v>4096</v>
       </c>
     </row>
@@ -29990,7 +28690,7 @@
         <v>10.276899999999999</v>
       </c>
       <c r="F149" s="26">
-        <f>AVERAGE(C149:E149)</f>
+        <f t="shared" si="32"/>
         <v>6.1855933333333324</v>
       </c>
       <c r="G149" s="16"/>
@@ -30004,7 +28704,7 @@
         <v>9.7448499999999996</v>
       </c>
       <c r="K149" s="26">
-        <f>AVERAGE(H149:J149)</f>
+        <f t="shared" si="33"/>
         <v>9.9197500000000005</v>
       </c>
       <c r="L149" s="16"/>
@@ -30018,7 +28718,7 @@
         <v>10.025</v>
       </c>
       <c r="P149" s="26">
-        <f>AVERAGE(M149:O149)</f>
+        <f t="shared" si="34"/>
         <v>9.9416433333333334</v>
       </c>
       <c r="Q149" s="16"/>
@@ -30032,7 +28732,7 @@
         <v>10.280900000000001</v>
       </c>
       <c r="U149" s="26">
-        <f>AVERAGE(R149:T149)</f>
+        <f t="shared" si="35"/>
         <v>10.2841</v>
       </c>
       <c r="V149" s="16"/>
@@ -30046,7 +28746,7 @@
         <v>10.2834</v>
       </c>
       <c r="Z149" s="26">
-        <f>AVERAGE(W149:Y149)</f>
+        <f t="shared" si="36"/>
         <v>10.271433333333334</v>
       </c>
       <c r="AA149" s="16"/>
@@ -30060,7 +28760,7 @@
         <v>10.288600000000001</v>
       </c>
       <c r="AE149" s="32">
-        <f>AVERAGE(AB149:AD149)</f>
+        <f t="shared" si="37"/>
         <v>10.285200000000001</v>
       </c>
     </row>
@@ -30078,7 +28778,7 @@
         <v>2630</v>
       </c>
       <c r="F150" s="26">
-        <f>AVERAGE(C150:E150)</f>
+        <f t="shared" si="32"/>
         <v>1582.6666666666667</v>
       </c>
       <c r="G150" s="16"/>
@@ -30092,7 +28792,7 @@
         <v>2494</v>
       </c>
       <c r="K150" s="26">
-        <f>AVERAGE(H150:J150)</f>
+        <f t="shared" si="33"/>
         <v>2538.6666666666665</v>
       </c>
       <c r="L150" s="16"/>
@@ -30106,7 +28806,7 @@
         <v>2566</v>
       </c>
       <c r="P150" s="26">
-        <f>AVERAGE(M150:O150)</f>
+        <f t="shared" si="34"/>
         <v>2544.3333333333335</v>
       </c>
       <c r="Q150" s="16"/>
@@ -30120,7 +28820,7 @@
         <v>2631</v>
       </c>
       <c r="U150" s="26">
-        <f>AVERAGE(R150:T150)</f>
+        <f t="shared" si="35"/>
         <v>2632</v>
       </c>
       <c r="V150" s="16"/>
@@ -30134,7 +28834,7 @@
         <v>2632</v>
       </c>
       <c r="Z150" s="26">
-        <f>AVERAGE(W150:Y150)</f>
+        <f t="shared" si="36"/>
         <v>2629</v>
       </c>
       <c r="AA150" s="16"/>
@@ -30148,7 +28848,7 @@
         <v>2633</v>
       </c>
       <c r="AE150" s="32">
-        <f>AVERAGE(AB150:AD150)</f>
+        <f t="shared" si="37"/>
         <v>2632.3333333333335</v>
       </c>
     </row>
@@ -30166,7 +28866,7 @@
         <v>8.6060499999999998</v>
       </c>
       <c r="F151" s="26">
-        <f>AVERAGE(C151:E151)</f>
+        <f t="shared" si="32"/>
         <v>579.53801666666664</v>
       </c>
       <c r="G151" s="16"/>
@@ -30180,7 +28880,7 @@
         <v>267.78699999999998</v>
       </c>
       <c r="K151" s="26">
-        <f>AVERAGE(H151:J151)</f>
+        <f t="shared" si="33"/>
         <v>95.875683333333328</v>
       </c>
       <c r="L151" s="16"/>
@@ -30194,7 +28894,7 @@
         <v>2.7259899999999999</v>
       </c>
       <c r="P151" s="26">
-        <f>AVERAGE(M151:O151)</f>
+        <f t="shared" si="34"/>
         <v>90.893226666666678</v>
       </c>
       <c r="Q151" s="16"/>
@@ -30208,7 +28908,7 @@
         <v>3.7046399999999999</v>
       </c>
       <c r="U151" s="26">
-        <f>AVERAGE(R151:T151)</f>
+        <f t="shared" si="35"/>
         <v>3.6914433333333334</v>
       </c>
       <c r="V151" s="16"/>
@@ -30222,7 +28922,7 @@
         <v>3.4929600000000001</v>
       </c>
       <c r="Z151" s="26">
-        <f>AVERAGE(W151:Y151)</f>
+        <f t="shared" si="36"/>
         <v>18.038226666666663</v>
       </c>
       <c r="AA151" s="16"/>
@@ -30236,7 +28936,7 @@
         <v>1.4772099999999999</v>
       </c>
       <c r="AE151" s="32">
-        <f>AVERAGE(AB151:AD151)</f>
+        <f t="shared" si="37"/>
         <v>3.8197233333333327</v>
       </c>
     </row>
@@ -30254,7 +28954,7 @@
         <v>2641</v>
       </c>
       <c r="F152" s="26">
-        <f>AVERAGE(C152:E152)</f>
+        <f t="shared" si="32"/>
         <v>2643.3333333333335</v>
       </c>
       <c r="G152" s="16"/>
@@ -30268,7 +28968,7 @@
         <v>2574</v>
       </c>
       <c r="K152" s="26">
-        <f>AVERAGE(H152:J152)</f>
+        <f t="shared" si="33"/>
         <v>2572</v>
       </c>
       <c r="L152" s="16"/>
@@ -30282,7 +28982,7 @@
         <v>2570</v>
       </c>
       <c r="P152" s="26">
-        <f>AVERAGE(M152:O152)</f>
+        <f t="shared" si="34"/>
         <v>2569.3333333333335</v>
       </c>
       <c r="Q152" s="16"/>
@@ -30296,7 +28996,7 @@
         <v>2637</v>
       </c>
       <c r="U152" s="26">
-        <f>AVERAGE(R152:T152)</f>
+        <f t="shared" si="35"/>
         <v>2637.3333333333335</v>
       </c>
       <c r="V152" s="16"/>
@@ -30310,7 +29010,7 @@
         <v>2637</v>
       </c>
       <c r="Z152" s="26">
-        <f>AVERAGE(W152:Y152)</f>
+        <f t="shared" si="36"/>
         <v>2636.6666666666665</v>
       </c>
       <c r="AA152" s="16"/>
@@ -30324,7 +29024,7 @@
         <v>2637</v>
       </c>
       <c r="AE152" s="32">
-        <f>AVERAGE(AB152:AD152)</f>
+        <f t="shared" si="37"/>
         <v>2637</v>
       </c>
     </row>
@@ -30342,7 +29042,7 @@
         <v>2614</v>
       </c>
       <c r="F153" s="37">
-        <f>AVERAGE(C153:E153)</f>
+        <f t="shared" si="32"/>
         <v>871.33333333333337</v>
       </c>
       <c r="G153" s="21"/>
@@ -30356,7 +29056,7 @@
         <v>1473</v>
       </c>
       <c r="K153" s="37">
-        <f>AVERAGE(H153:J153)</f>
+        <f t="shared" si="33"/>
         <v>2180.3333333333335</v>
       </c>
       <c r="L153" s="21"/>
@@ -30370,7 +29070,7 @@
         <v>2560</v>
       </c>
       <c r="P153" s="37">
-        <f>AVERAGE(M153:O153)</f>
+        <f t="shared" si="34"/>
         <v>2081</v>
       </c>
       <c r="Q153" s="21"/>
@@ -30384,7 +29084,7 @@
         <v>2616</v>
       </c>
       <c r="U153" s="37">
-        <f>AVERAGE(R153:T153)</f>
+        <f t="shared" si="35"/>
         <v>2618.3333333333335</v>
       </c>
       <c r="V153" s="21"/>
@@ -30398,7 +29098,7 @@
         <v>2618</v>
       </c>
       <c r="Z153" s="37">
-        <f>AVERAGE(W153:Y153)</f>
+        <f t="shared" si="36"/>
         <v>2521</v>
       </c>
       <c r="AA153" s="21"/>
@@ -30412,7 +29112,7 @@
         <v>2630</v>
       </c>
       <c r="AE153" s="38">
-        <f>AVERAGE(AB153:AD153)</f>
+        <f t="shared" si="37"/>
         <v>2611.3333333333335</v>
       </c>
     </row>
@@ -30699,7 +29399,7 @@
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
       <c r="F167" s="26" t="e">
-        <f t="shared" ref="F167:F177" si="32">AVERAGE(C167:E167)</f>
+        <f t="shared" ref="F167:F177" si="38">AVERAGE(C167:E167)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G167" s="16"/>
@@ -30713,7 +29413,7 @@
         <v>103983</v>
       </c>
       <c r="K167" s="26">
-        <f t="shared" ref="K167:K177" si="33">AVERAGE(H167:J167)</f>
+        <f t="shared" ref="K167:K177" si="39">AVERAGE(H167:J167)</f>
         <v>117428.66666666667</v>
       </c>
       <c r="L167" s="16"/>
@@ -30727,7 +29427,7 @@
         <v>112054</v>
       </c>
       <c r="P167" s="26">
-        <f t="shared" ref="P167:P177" si="34">AVERAGE(M167:O167)</f>
+        <f t="shared" ref="P167:P177" si="40">AVERAGE(M167:O167)</f>
         <v>109364</v>
       </c>
       <c r="Q167" s="16"/>
@@ -30741,7 +29441,7 @@
         <v>113196</v>
       </c>
       <c r="U167" s="26">
-        <f t="shared" ref="U167:U177" si="35">AVERAGE(R167:T167)</f>
+        <f t="shared" ref="U167:U177" si="41">AVERAGE(R167:T167)</f>
         <v>113241.66666666667</v>
       </c>
       <c r="V167" s="16"/>
@@ -30755,7 +29455,7 @@
         <v>114960</v>
       </c>
       <c r="Z167" s="26">
-        <f t="shared" ref="Z167:Z177" si="36">AVERAGE(W167:Y167)</f>
+        <f t="shared" ref="Z167:Z177" si="42">AVERAGE(W167:Y167)</f>
         <v>114413.66666666667</v>
       </c>
       <c r="AA167" s="16"/>
@@ -30769,7 +29469,7 @@
         <v>117933</v>
       </c>
       <c r="AE167" s="32">
-        <f t="shared" ref="AE167:AE177" si="37">AVERAGE(AB167:AD167)</f>
+        <f t="shared" ref="AE167:AE177" si="43">AVERAGE(AB167:AD167)</f>
         <v>117773</v>
       </c>
     </row>
@@ -30787,7 +29487,7 @@
         <v>4096</v>
       </c>
       <c r="F168" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>4096</v>
       </c>
       <c r="G168" s="16"/>
@@ -30801,7 +29501,7 @@
         <v>4096</v>
       </c>
       <c r="K168" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>4096</v>
       </c>
       <c r="L168" s="16"/>
@@ -30815,7 +29515,7 @@
         <v>4096</v>
       </c>
       <c r="P168" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>4096</v>
       </c>
       <c r="Q168" s="16"/>
@@ -30829,7 +29529,7 @@
         <v>4096</v>
       </c>
       <c r="U168" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>4096</v>
       </c>
       <c r="V168" s="16"/>
@@ -30843,7 +29543,7 @@
         <v>4096</v>
       </c>
       <c r="Z168" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>4096</v>
       </c>
       <c r="AA168" s="16"/>
@@ -30857,7 +29557,7 @@
         <v>4096</v>
       </c>
       <c r="AE168" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4096</v>
       </c>
     </row>
@@ -30875,7 +29575,7 @@
         <v>4096</v>
       </c>
       <c r="F169" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>4096</v>
       </c>
       <c r="G169" s="16"/>
@@ -30889,7 +29589,7 @@
         <v>4096</v>
       </c>
       <c r="K169" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>4096</v>
       </c>
       <c r="L169" s="16"/>
@@ -30903,7 +29603,7 @@
         <v>4096</v>
       </c>
       <c r="P169" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>4096</v>
       </c>
       <c r="Q169" s="16"/>
@@ -30917,7 +29617,7 @@
         <v>4096</v>
       </c>
       <c r="U169" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>4096</v>
       </c>
       <c r="V169" s="16"/>
@@ -30931,7 +29631,7 @@
         <v>4096</v>
       </c>
       <c r="Z169" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>4096</v>
       </c>
       <c r="AA169" s="16"/>
@@ -30945,7 +29645,7 @@
         <v>4096</v>
       </c>
       <c r="AE169" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>4096</v>
       </c>
     </row>
@@ -30957,7 +29657,7 @@
       <c r="D170" s="22"/>
       <c r="E170" s="22"/>
       <c r="F170" s="26" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G170" s="16"/>
@@ -30971,7 +29671,7 @@
         <v>6.76701</v>
       </c>
       <c r="K170" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>7.6429599999999995</v>
       </c>
       <c r="L170" s="16"/>
@@ -30985,7 +29685,7 @@
         <v>7.2943800000000003</v>
       </c>
       <c r="P170" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>7.1188433333333334</v>
       </c>
       <c r="Q170" s="16"/>
@@ -30999,7 +29699,7 @@
         <v>7.36883</v>
       </c>
       <c r="U170" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7.3717133333333331</v>
       </c>
       <c r="V170" s="16"/>
@@ -31013,7 +29713,7 @@
         <v>7.48346</v>
       </c>
       <c r="Z170" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7.4474299999999998</v>
       </c>
       <c r="AA170" s="16"/>
@@ -31027,7 +29727,7 @@
         <v>7.6770399999999999</v>
       </c>
       <c r="AE170" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>7.666643333333333</v>
       </c>
     </row>
@@ -31039,7 +29739,7 @@
       <c r="D171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="26" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G171" s="16"/>
@@ -31053,7 +29753,7 @@
         <v>3.8083800000000001</v>
       </c>
       <c r="K171" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2.8250700000000002</v>
       </c>
       <c r="L171" s="16"/>
@@ -31067,7 +29767,7 @@
         <v>0.78114600000000001</v>
       </c>
       <c r="P171" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1.1933373333333335</v>
       </c>
       <c r="Q171" s="16"/>
@@ -31081,7 +29781,7 @@
         <v>0.18057100000000001</v>
       </c>
       <c r="U171" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.18767033333333336</v>
       </c>
       <c r="V171" s="16"/>
@@ -31095,7 +29795,7 @@
         <v>0.20227100000000001</v>
       </c>
       <c r="Z171" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.18074166666666666</v>
       </c>
       <c r="AA171" s="16"/>
@@ -31109,7 +29809,7 @@
         <v>0.315577</v>
       </c>
       <c r="AE171" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.33233566666666664</v>
       </c>
     </row>
@@ -31121,7 +29821,7 @@
       <c r="D172" s="22"/>
       <c r="E172" s="22"/>
       <c r="F172" s="26" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G172" s="16"/>
@@ -31135,7 +29835,7 @@
         <v>9.6914099999999994</v>
       </c>
       <c r="K172" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>9.679686666666667</v>
       </c>
       <c r="L172" s="16"/>
@@ -31149,7 +29849,7 @@
         <v>8.0744199999999999</v>
       </c>
       <c r="P172" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>8.0977233333333327</v>
       </c>
       <c r="Q172" s="16"/>
@@ -31163,7 +29863,7 @@
         <v>7.6757799999999996</v>
       </c>
       <c r="U172" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7.6158833333333336</v>
       </c>
       <c r="V172" s="16"/>
@@ -31177,7 +29877,7 @@
         <v>7.6914100000000003</v>
       </c>
       <c r="Z172" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7.6549466666666675</v>
       </c>
       <c r="AA172" s="16"/>
@@ -31191,7 +29891,7 @@
         <v>7.9648399999999997</v>
       </c>
       <c r="AE172" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>7.98177</v>
       </c>
     </row>
@@ -31203,7 +29903,7 @@
       <c r="D173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="26" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G173" s="16"/>
@@ -31217,7 +29917,7 @@
         <v>7.8125E-3</v>
       </c>
       <c r="K173" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2.7382808333333331</v>
       </c>
       <c r="L173" s="16"/>
@@ -31231,7 +29931,7 @@
         <v>5.7265600000000001</v>
       </c>
       <c r="P173" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>4.04427</v>
       </c>
       <c r="Q173" s="16"/>
@@ -31245,7 +29945,7 @@
         <v>6.6718799999999998</v>
       </c>
       <c r="U173" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6.6536466666666669</v>
       </c>
       <c r="V173" s="16"/>
@@ -31259,7 +29959,7 @@
         <v>6.5234399999999999</v>
       </c>
       <c r="Z173" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>6.6627599999999996</v>
       </c>
       <c r="AA173" s="16"/>
@@ -31273,7 +29973,7 @@
         <v>6.6992200000000004</v>
       </c>
       <c r="AE173" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>6.6197933333333339</v>
       </c>
     </row>
@@ -31285,7 +29985,7 @@
       <c r="D174" s="22"/>
       <c r="E174" s="22"/>
       <c r="F174" s="26" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G174" s="16"/>
@@ -31299,7 +29999,7 @@
         <v>1732</v>
       </c>
       <c r="K174" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1956</v>
       </c>
       <c r="L174" s="16"/>
@@ -31313,7 +30013,7 @@
         <v>1867</v>
       </c>
       <c r="P174" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1821.6666666666667</v>
       </c>
       <c r="Q174" s="16"/>
@@ -31327,7 +30027,7 @@
         <v>1886</v>
       </c>
       <c r="U174" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1886.6666666666667</v>
       </c>
       <c r="V174" s="16"/>
@@ -31341,7 +30041,7 @@
         <v>1915</v>
       </c>
       <c r="Z174" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1905.6666666666667</v>
       </c>
       <c r="AA174" s="16"/>
@@ -31355,7 +30055,7 @@
         <v>1965</v>
       </c>
       <c r="AE174" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>1962.3333333333333</v>
       </c>
     </row>
@@ -31367,7 +30067,7 @@
       <c r="D175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="26" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G175" s="16"/>
@@ -31381,7 +30081,7 @@
         <v>974.94600000000003</v>
       </c>
       <c r="K175" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>723.21833333333325</v>
       </c>
       <c r="L175" s="16"/>
@@ -31395,7 +30095,7 @@
         <v>199.97300000000001</v>
       </c>
       <c r="P175" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>305.49466666666666</v>
       </c>
       <c r="Q175" s="16"/>
@@ -31409,7 +30109,7 @@
         <v>46.226199999999999</v>
       </c>
       <c r="U175" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>48.043633333333332</v>
       </c>
       <c r="V175" s="16"/>
@@ -31423,7 +30123,7 @@
         <v>51.781399999999998</v>
       </c>
       <c r="Z175" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>46.2699</v>
       </c>
       <c r="AA175" s="16"/>
@@ -31437,7 +30137,7 @@
         <v>80.787599999999998</v>
       </c>
       <c r="AE175" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>85.0779</v>
       </c>
     </row>
@@ -31449,7 +30149,7 @@
       <c r="D176" s="22"/>
       <c r="E176" s="22"/>
       <c r="F176" s="26" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G176" s="16"/>
@@ -31463,7 +30163,7 @@
         <v>2482</v>
       </c>
       <c r="K176" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2478.3333333333335</v>
       </c>
       <c r="L176" s="16"/>
@@ -31477,7 +30177,7 @@
         <v>2067</v>
       </c>
       <c r="P176" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>2073</v>
       </c>
       <c r="Q176" s="16"/>
@@ -31491,7 +30191,7 @@
         <v>1965</v>
       </c>
       <c r="U176" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1949.6666666666667</v>
       </c>
       <c r="V176" s="16"/>
@@ -31505,7 +30205,7 @@
         <v>1969</v>
       </c>
       <c r="Z176" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1373.3333333333333</v>
       </c>
       <c r="AA176" s="16"/>
@@ -31519,7 +30219,7 @@
         <v>2039</v>
       </c>
       <c r="AE176" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>2043.3333333333333</v>
       </c>
     </row>
@@ -31531,7 +30231,7 @@
       <c r="D177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="26" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G177" s="16"/>
@@ -31545,7 +30245,7 @@
         <v>2</v>
       </c>
       <c r="K177" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>701</v>
       </c>
       <c r="L177" s="16"/>
@@ -31559,7 +30259,7 @@
         <v>1466</v>
       </c>
       <c r="P177" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1035.3333333333333</v>
       </c>
       <c r="Q177" s="16"/>
@@ -31573,7 +30273,7 @@
         <v>1708</v>
       </c>
       <c r="U177" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>1703.3333333333333</v>
       </c>
       <c r="V177" s="16"/>
@@ -31587,7 +30287,7 @@
         <v>1670</v>
       </c>
       <c r="Z177" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1705.6666666666667</v>
       </c>
       <c r="AA177" s="16"/>
@@ -31601,7 +30301,7 @@
         <v>1715</v>
       </c>
       <c r="AE177" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>1694.6666666666667</v>
       </c>
     </row>
@@ -31764,7 +30464,7 @@
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
       <c r="F182" s="26" t="e">
-        <f>AVERAGE(C182:E182)</f>
+        <f t="shared" ref="F182:F190" si="44">AVERAGE(C182:E182)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G182" s="16"/>
@@ -31778,7 +30478,7 @@
         <v>43.550600000000003</v>
       </c>
       <c r="K182" s="26">
-        <f>AVERAGE(H182:J182)</f>
+        <f t="shared" ref="K182:K190" si="45">AVERAGE(H182:J182)</f>
         <v>43.581533333333333</v>
       </c>
       <c r="L182" s="16"/>
@@ -31792,7 +30492,7 @@
         <v>44.428699999999999</v>
       </c>
       <c r="P182" s="26">
-        <f>AVERAGE(M182:O182)</f>
+        <f t="shared" ref="P182:P190" si="46">AVERAGE(M182:O182)</f>
         <v>44.488933333333335</v>
       </c>
       <c r="Q182" s="16"/>
@@ -31806,7 +30506,7 @@
         <v>43.028300000000002</v>
       </c>
       <c r="U182" s="26">
-        <f>AVERAGE(R182:T182)</f>
+        <f t="shared" ref="U182:U190" si="47">AVERAGE(R182:T182)</f>
         <v>43.031499999999994</v>
       </c>
       <c r="V182" s="16"/>
@@ -31820,7 +30520,7 @@
         <v>43.708199999999998</v>
       </c>
       <c r="Z182" s="26">
-        <f>AVERAGE(W182:Y182)</f>
+        <f t="shared" ref="Z182:Z190" si="48">AVERAGE(W182:Y182)</f>
         <v>43.706500000000005</v>
       </c>
       <c r="AA182" s="16"/>
@@ -31834,7 +30534,7 @@
         <v>44.778100000000002</v>
       </c>
       <c r="AE182" s="32">
-        <f>AVERAGE(AB182:AD182)</f>
+        <f t="shared" ref="AE182:AE190" si="49">AVERAGE(AB182:AD182)</f>
         <v>44.812999999999995</v>
       </c>
     </row>
@@ -31846,7 +30546,7 @@
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
       <c r="F183" s="26" t="e">
-        <f>AVERAGE(C183:E183)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G183" s="16"/>
@@ -31860,7 +30560,7 @@
         <v>114710</v>
       </c>
       <c r="K183" s="26">
-        <f>AVERAGE(H183:J183)</f>
+        <f t="shared" si="45"/>
         <v>114710</v>
       </c>
       <c r="L183" s="16"/>
@@ -31874,7 +30574,7 @@
         <v>117089</v>
       </c>
       <c r="P183" s="26">
-        <f>AVERAGE(M183:O183)</f>
+        <f t="shared" si="46"/>
         <v>117089</v>
       </c>
       <c r="Q183" s="16"/>
@@ -31888,7 +30588,7 @@
         <v>113196</v>
       </c>
       <c r="U183" s="26">
-        <f>AVERAGE(R183:T183)</f>
+        <f t="shared" si="47"/>
         <v>113196</v>
       </c>
       <c r="V183" s="16"/>
@@ -31902,7 +30602,7 @@
         <v>114960</v>
       </c>
       <c r="Z183" s="26">
-        <f>AVERAGE(W183:Y183)</f>
+        <f t="shared" si="48"/>
         <v>114960</v>
       </c>
       <c r="AA183" s="16"/>
@@ -31916,7 +30616,7 @@
         <v>117933</v>
       </c>
       <c r="AE183" s="32">
-        <f>AVERAGE(AB183:AD183)</f>
+        <f t="shared" si="49"/>
         <v>117933</v>
       </c>
     </row>
@@ -31934,7 +30634,7 @@
         <v>4096</v>
       </c>
       <c r="F184" s="26">
-        <f>AVERAGE(C184:E184)</f>
+        <f t="shared" si="44"/>
         <v>4096</v>
       </c>
       <c r="G184" s="16"/>
@@ -31948,7 +30648,7 @@
         <v>4096</v>
       </c>
       <c r="K184" s="26">
-        <f>AVERAGE(H184:J184)</f>
+        <f t="shared" si="45"/>
         <v>4096</v>
       </c>
       <c r="L184" s="16"/>
@@ -31962,7 +30662,7 @@
         <v>4096</v>
       </c>
       <c r="P184" s="26">
-        <f>AVERAGE(M184:O184)</f>
+        <f t="shared" si="46"/>
         <v>4096</v>
       </c>
       <c r="Q184" s="16"/>
@@ -31976,7 +30676,7 @@
         <v>4096</v>
       </c>
       <c r="U184" s="26">
-        <f>AVERAGE(R184:T184)</f>
+        <f t="shared" si="47"/>
         <v>4096</v>
       </c>
       <c r="V184" s="16"/>
@@ -31990,7 +30690,7 @@
         <v>4096</v>
       </c>
       <c r="Z184" s="26">
-        <f>AVERAGE(W184:Y184)</f>
+        <f t="shared" si="48"/>
         <v>4096</v>
       </c>
       <c r="AA184" s="16"/>
@@ -32004,7 +30704,7 @@
         <v>4096</v>
       </c>
       <c r="AE184" s="32">
-        <f>AVERAGE(AB184:AD184)</f>
+        <f t="shared" si="49"/>
         <v>4096</v>
       </c>
     </row>
@@ -32022,7 +30722,7 @@
         <v>4096</v>
       </c>
       <c r="F185" s="26">
-        <f>AVERAGE(C185:E185)</f>
+        <f t="shared" si="44"/>
         <v>4096</v>
       </c>
       <c r="G185" s="16"/>
@@ -32036,7 +30736,7 @@
         <v>4096</v>
       </c>
       <c r="K185" s="26">
-        <f>AVERAGE(H185:J185)</f>
+        <f t="shared" si="45"/>
         <v>4096</v>
       </c>
       <c r="L185" s="16"/>
@@ -32050,7 +30750,7 @@
         <v>4096</v>
       </c>
       <c r="P185" s="26">
-        <f>AVERAGE(M185:O185)</f>
+        <f t="shared" si="46"/>
         <v>4096</v>
       </c>
       <c r="Q185" s="16"/>
@@ -32064,7 +30764,7 @@
         <v>4096</v>
       </c>
       <c r="U185" s="26">
-        <f>AVERAGE(R185:T185)</f>
+        <f t="shared" si="47"/>
         <v>4096</v>
       </c>
       <c r="V185" s="16"/>
@@ -32078,7 +30778,7 @@
         <v>4096</v>
       </c>
       <c r="Z185" s="26">
-        <f>AVERAGE(W185:Y185)</f>
+        <f t="shared" si="48"/>
         <v>4096</v>
       </c>
       <c r="AA185" s="16"/>
@@ -32092,7 +30792,7 @@
         <v>4096</v>
       </c>
       <c r="AE185" s="32">
-        <f>AVERAGE(AB185:AD185)</f>
+        <f t="shared" si="49"/>
         <v>4096</v>
       </c>
     </row>
@@ -32104,7 +30804,7 @@
       <c r="D186" s="22"/>
       <c r="E186" s="22"/>
       <c r="F186" s="26" t="e">
-        <f>AVERAGE(C186:E186)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G186" s="16"/>
@@ -32118,7 +30818,7 @@
         <v>10.2889</v>
       </c>
       <c r="K186" s="26">
-        <f>AVERAGE(H186:J186)</f>
+        <f t="shared" si="45"/>
         <v>10.281566666666665</v>
       </c>
       <c r="L186" s="16"/>
@@ -32132,7 +30832,7 @@
         <v>10.294700000000001</v>
       </c>
       <c r="P186" s="26">
-        <f>AVERAGE(M186:O186)</f>
+        <f t="shared" si="46"/>
         <v>10.280766666666667</v>
       </c>
       <c r="Q186" s="16"/>
@@ -32146,7 +30846,7 @@
         <v>10.276300000000001</v>
       </c>
       <c r="U186" s="26">
-        <f>AVERAGE(R186:T186)</f>
+        <f t="shared" si="47"/>
         <v>10.275533333333334</v>
       </c>
       <c r="V186" s="16"/>
@@ -32160,7 +30860,7 @@
         <v>10.274100000000001</v>
       </c>
       <c r="Z186" s="26">
-        <f>AVERAGE(W186:Y186)</f>
+        <f t="shared" si="48"/>
         <v>10.274533333333334</v>
       </c>
       <c r="AA186" s="16"/>
@@ -32174,7 +30874,7 @@
         <v>10.288</v>
       </c>
       <c r="AE186" s="32">
-        <f>AVERAGE(AB186:AD186)</f>
+        <f t="shared" si="49"/>
         <v>10.279966666666667</v>
       </c>
     </row>
@@ -32186,7 +30886,7 @@
       <c r="D187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="26" t="e">
-        <f>AVERAGE(C187:E187)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G187" s="16"/>
@@ -32200,7 +30900,7 @@
         <v>2633</v>
       </c>
       <c r="K187" s="26">
-        <f>AVERAGE(H187:J187)</f>
+        <f t="shared" si="45"/>
         <v>2631.6666666666665</v>
       </c>
       <c r="L187" s="16"/>
@@ -32214,7 +30914,7 @@
         <v>2635</v>
       </c>
       <c r="P187" s="26">
-        <f>AVERAGE(M187:O187)</f>
+        <f t="shared" si="46"/>
         <v>2631.6666666666665</v>
       </c>
       <c r="Q187" s="16"/>
@@ -32228,7 +30928,7 @@
         <v>2630</v>
       </c>
       <c r="U187" s="26">
-        <f>AVERAGE(R187:T187)</f>
+        <f t="shared" si="47"/>
         <v>2630</v>
       </c>
       <c r="V187" s="16"/>
@@ -32242,7 +30942,7 @@
         <v>2630</v>
       </c>
       <c r="Z187" s="26">
-        <f>AVERAGE(W187:Y187)</f>
+        <f t="shared" si="48"/>
         <v>2630</v>
       </c>
       <c r="AA187" s="16"/>
@@ -32256,7 +30956,7 @@
         <v>2633</v>
       </c>
       <c r="AE187" s="32">
-        <f>AVERAGE(AB187:AD187)</f>
+        <f t="shared" si="49"/>
         <v>2631</v>
       </c>
     </row>
@@ -32268,7 +30968,7 @@
       <c r="D188" s="22"/>
       <c r="E188" s="22"/>
       <c r="F188" s="26" t="e">
-        <f>AVERAGE(C188:E188)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G188" s="16"/>
@@ -32282,7 +30982,7 @@
         <v>5.8525600000000004</v>
       </c>
       <c r="K188" s="26">
-        <f>AVERAGE(H188:J188)</f>
+        <f t="shared" si="45"/>
         <v>12.822303333333332</v>
       </c>
       <c r="L188" s="16"/>
@@ -32296,7 +30996,7 @@
         <v>2.4169100000000001</v>
       </c>
       <c r="P188" s="26">
-        <f>AVERAGE(M188:O188)</f>
+        <f t="shared" si="46"/>
         <v>14.2539</v>
       </c>
       <c r="Q188" s="16"/>
@@ -32310,7 +31010,7 @@
         <v>7.6173000000000002</v>
       </c>
       <c r="U188" s="26">
-        <f>AVERAGE(R188:T188)</f>
+        <f t="shared" si="47"/>
         <v>5.9732133333333337</v>
       </c>
       <c r="V188" s="16"/>
@@ -32324,7 +31024,7 @@
         <v>5.0595600000000003</v>
       </c>
       <c r="Z188" s="26">
-        <f>AVERAGE(W188:Y188)</f>
+        <f t="shared" si="48"/>
         <v>4.5779633333333329</v>
       </c>
       <c r="AA188" s="16"/>
@@ -32338,7 +31038,7 @@
         <v>2.68344</v>
       </c>
       <c r="AE188" s="32">
-        <f>AVERAGE(AB188:AD188)</f>
+        <f t="shared" si="49"/>
         <v>3.6783600000000001</v>
       </c>
     </row>
@@ -32350,7 +31050,7 @@
       <c r="D189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="26" t="e">
-        <f>AVERAGE(C189:E189)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G189" s="16"/>
@@ -32364,7 +31064,7 @@
         <v>2640</v>
       </c>
       <c r="K189" s="26">
-        <f>AVERAGE(H189:J189)</f>
+        <f t="shared" si="45"/>
         <v>2640</v>
       </c>
       <c r="L189" s="16"/>
@@ -32378,7 +31078,7 @@
         <v>2640</v>
       </c>
       <c r="P189" s="26">
-        <f>AVERAGE(M189:O189)</f>
+        <f t="shared" si="46"/>
         <v>2639</v>
       </c>
       <c r="Q189" s="16"/>
@@ -32392,7 +31092,7 @@
         <v>2636</v>
       </c>
       <c r="U189" s="26">
-        <f>AVERAGE(R189:T189)</f>
+        <f t="shared" si="47"/>
         <v>2636</v>
       </c>
       <c r="V189" s="16"/>
@@ -32406,7 +31106,7 @@
         <v>2637</v>
       </c>
       <c r="Z189" s="26">
-        <f>AVERAGE(W189:Y189)</f>
+        <f t="shared" si="48"/>
         <v>2637</v>
       </c>
       <c r="AA189" s="16"/>
@@ -32420,7 +31120,7 @@
         <v>2638</v>
       </c>
       <c r="AE189" s="32">
-        <f>AVERAGE(AB189:AD189)</f>
+        <f t="shared" si="49"/>
         <v>2636.6666666666665</v>
       </c>
     </row>
@@ -32432,7 +31132,7 @@
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
       <c r="F190" s="37" t="e">
-        <f>AVERAGE(C190:E190)</f>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G190" s="21"/>
@@ -32446,7 +31146,7 @@
         <v>2623</v>
       </c>
       <c r="K190" s="37">
-        <f>AVERAGE(H190:J190)</f>
+        <f t="shared" si="45"/>
         <v>2569</v>
       </c>
       <c r="L190" s="21"/>
@@ -32460,7 +31160,7 @@
         <v>2629</v>
       </c>
       <c r="P190" s="37">
-        <f>AVERAGE(M190:O190)</f>
+        <f t="shared" si="46"/>
         <v>2566.3333333333335</v>
       </c>
       <c r="Q190" s="21"/>
@@ -32474,7 +31174,7 @@
         <v>2593</v>
       </c>
       <c r="U190" s="37">
-        <f>AVERAGE(R190:T190)</f>
+        <f t="shared" si="47"/>
         <v>2605.6666666666665</v>
       </c>
       <c r="V190" s="21"/>
@@ -32488,7 +31188,7 @@
         <v>2609</v>
       </c>
       <c r="Z190" s="37">
-        <f>AVERAGE(W190:Y190)</f>
+        <f t="shared" si="48"/>
         <v>2611.3333333333335</v>
       </c>
       <c r="AA190" s="21"/>
@@ -32502,7 +31202,7 @@
         <v>2628</v>
       </c>
       <c r="AE190" s="38">
-        <f>AVERAGE(AB190:AD190)</f>
+        <f t="shared" si="49"/>
         <v>2616</v>
       </c>
     </row>
@@ -32669,7 +31369,7 @@
         <v>151054</v>
       </c>
       <c r="F203" s="26">
-        <f t="shared" ref="F203:F211" si="38">AVERAGE(C203:E203)</f>
+        <f t="shared" ref="F203:F211" si="50">AVERAGE(C203:E203)</f>
         <v>150832</v>
       </c>
       <c r="G203" s="16"/>
@@ -32683,7 +31383,7 @@
         <v>149390</v>
       </c>
       <c r="K203" s="26">
-        <f t="shared" ref="K203:K211" si="39">AVERAGE(H203:J203)</f>
+        <f t="shared" ref="K203:K211" si="51">AVERAGE(H203:J203)</f>
         <v>146793.66666666666</v>
       </c>
       <c r="L203" s="16"/>
@@ -32697,7 +31397,7 @@
         <v>150043</v>
       </c>
       <c r="P203" s="32">
-        <f t="shared" ref="P203:P211" si="40">AVERAGE(M203:O203)</f>
+        <f t="shared" ref="P203:P211" si="52">AVERAGE(M203:O203)</f>
         <v>148858.66666666666</v>
       </c>
       <c r="AE203"/>
@@ -32716,7 +31416,7 @@
         <v>4096</v>
       </c>
       <c r="F204" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>4096</v>
       </c>
       <c r="G204" s="16"/>
@@ -32730,7 +31430,7 @@
         <v>4096</v>
       </c>
       <c r="K204" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>4096</v>
       </c>
       <c r="L204" s="16"/>
@@ -32744,7 +31444,7 @@
         <v>4096</v>
       </c>
       <c r="P204" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>4096</v>
       </c>
       <c r="AE204"/>
@@ -32763,7 +31463,7 @@
         <v>4096</v>
       </c>
       <c r="F205" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>4096</v>
       </c>
       <c r="G205" s="16"/>
@@ -32777,7 +31477,7 @@
         <v>4096</v>
       </c>
       <c r="K205" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>4096</v>
       </c>
       <c r="L205" s="16"/>
@@ -32791,7 +31491,7 @@
         <v>4096</v>
       </c>
       <c r="P205" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>4096</v>
       </c>
       <c r="V205" s="16"/>
@@ -32817,7 +31517,7 @@
         <v>9.8333999999999993</v>
       </c>
       <c r="F206" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>9.8189266666666679</v>
       </c>
       <c r="G206" s="16"/>
@@ -32831,7 +31531,7 @@
         <v>9.7250800000000002</v>
       </c>
       <c r="K206" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>9.5560066666666668</v>
       </c>
       <c r="L206" s="16"/>
@@ -32845,7 +31545,7 @@
         <v>9.7673799999999993</v>
       </c>
       <c r="P206" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>9.6904099999999982</v>
       </c>
       <c r="V206" s="16"/>
@@ -32871,7 +31571,7 @@
         <v>9.9531200000000002</v>
       </c>
       <c r="F207" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>9.9510933333333327</v>
       </c>
       <c r="G207" s="16"/>
@@ -32885,7 +31585,7 @@
         <v>9.8593799999999998</v>
       </c>
       <c r="K207" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>9.8671900000000008</v>
       </c>
       <c r="L207" s="16"/>
@@ -32899,7 +31599,7 @@
         <v>9.8789099999999994</v>
       </c>
       <c r="P207" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>9.8684899999999995</v>
       </c>
       <c r="V207" s="16"/>
@@ -32925,7 +31625,7 @@
         <v>8.5507799999999996</v>
       </c>
       <c r="F208" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>8.2005199999999991</v>
       </c>
       <c r="G208" s="16"/>
@@ -32939,7 +31639,7 @@
         <v>8.1796900000000008</v>
       </c>
       <c r="K208" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>7.9596366666666674</v>
       </c>
       <c r="L208" s="16"/>
@@ -32953,7 +31653,7 @@
         <v>8.4414099999999994</v>
       </c>
       <c r="P208" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>8.5247399999999995</v>
       </c>
       <c r="V208" s="16"/>
@@ -32979,7 +31679,7 @@
         <v>2517</v>
       </c>
       <c r="F209" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>2513.3333333333335</v>
       </c>
       <c r="G209" s="16"/>
@@ -32993,7 +31693,7 @@
         <v>2489</v>
       </c>
       <c r="K209" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>2445.6666666666665</v>
       </c>
       <c r="L209" s="16"/>
@@ -33007,7 +31707,7 @@
         <v>2500</v>
       </c>
       <c r="P209" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>2480.3333333333335</v>
       </c>
       <c r="V209" s="16"/>
@@ -33033,7 +31733,7 @@
         <v>2548</v>
       </c>
       <c r="F210" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>2548.3333333333335</v>
       </c>
       <c r="G210" s="16"/>
@@ -33047,7 +31747,7 @@
         <v>2524</v>
       </c>
       <c r="K210" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>2526</v>
       </c>
       <c r="L210" s="16"/>
@@ -33061,7 +31761,7 @@
         <v>2529</v>
       </c>
       <c r="P210" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>2526.3333333333335</v>
       </c>
       <c r="V210" s="16"/>
@@ -33087,7 +31787,7 @@
         <v>2189</v>
       </c>
       <c r="F211" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>2099.3333333333335</v>
       </c>
       <c r="G211" s="16"/>
@@ -33101,7 +31801,7 @@
         <v>2094</v>
       </c>
       <c r="K211" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>2037.6666666666667</v>
       </c>
       <c r="L211" s="16"/>
@@ -33115,7 +31815,7 @@
         <v>2161</v>
       </c>
       <c r="P211" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>2182.3333333333335</v>
       </c>
       <c r="V211" s="16"/>
@@ -33252,7 +31952,7 @@
         <v>57.663899999999998</v>
       </c>
       <c r="F216" s="26">
-        <f>AVERAGE(C216:E216)</f>
+        <f t="shared" ref="F216:F223" si="53">AVERAGE(C216:E216)</f>
         <v>57.48896666666667</v>
       </c>
       <c r="G216" s="16"/>
@@ -33266,7 +31966,7 @@
         <v>56.730899999999998</v>
       </c>
       <c r="K216" s="26">
-        <f>AVERAGE(H216:J216)</f>
+        <f t="shared" ref="K216:K223" si="54">AVERAGE(H216:J216)</f>
         <v>56.960766666666665</v>
       </c>
       <c r="L216" s="16"/>
@@ -33280,7 +31980,7 @@
         <v>57.012300000000003</v>
       </c>
       <c r="P216" s="32">
-        <f>AVERAGE(M216:O216)</f>
+        <f t="shared" ref="P216:P223" si="55">AVERAGE(M216:O216)</f>
         <v>57.018566666666665</v>
       </c>
       <c r="V216" s="16"/>
@@ -33306,7 +32006,7 @@
         <v>151054</v>
       </c>
       <c r="F217" s="26">
-        <f>AVERAGE(C217:E217)</f>
+        <f t="shared" si="53"/>
         <v>151054</v>
       </c>
       <c r="G217" s="16"/>
@@ -33320,7 +32020,7 @@
         <v>149390</v>
       </c>
       <c r="K217" s="26">
-        <f>AVERAGE(H217:J217)</f>
+        <f t="shared" si="54"/>
         <v>149390</v>
       </c>
       <c r="L217" s="16"/>
@@ -33334,7 +32034,7 @@
         <v>150043</v>
       </c>
       <c r="P217" s="32">
-        <f>AVERAGE(M217:O217)</f>
+        <f t="shared" si="55"/>
         <v>150043</v>
       </c>
       <c r="V217" s="16"/>
@@ -33360,7 +32060,7 @@
         <v>4096</v>
       </c>
       <c r="F218" s="26">
-        <f>AVERAGE(C218:E218)</f>
+        <f t="shared" si="53"/>
         <v>4096</v>
       </c>
       <c r="G218" s="16"/>
@@ -33374,7 +32074,7 @@
         <v>4096</v>
       </c>
       <c r="K218" s="26">
-        <f>AVERAGE(H218:J218)</f>
+        <f t="shared" si="54"/>
         <v>4096</v>
       </c>
       <c r="L218" s="16"/>
@@ -33388,7 +32088,7 @@
         <v>4096</v>
       </c>
       <c r="P218" s="32">
-        <f>AVERAGE(M218:O218)</f>
+        <f t="shared" si="55"/>
         <v>4096</v>
       </c>
       <c r="V218" s="16"/>
@@ -33414,7 +32114,7 @@
         <v>4096</v>
       </c>
       <c r="F219" s="26">
-        <f>AVERAGE(C219:E219)</f>
+        <f t="shared" si="53"/>
         <v>4096</v>
       </c>
       <c r="G219" s="16"/>
@@ -33428,7 +32128,7 @@
         <v>4096</v>
       </c>
       <c r="K219" s="26">
-        <f>AVERAGE(H219:J219)</f>
+        <f t="shared" si="54"/>
         <v>4096</v>
       </c>
       <c r="L219" s="16"/>
@@ -33442,7 +32142,7 @@
         <v>4096</v>
       </c>
       <c r="P219" s="32">
-        <f>AVERAGE(M219:O219)</f>
+        <f t="shared" si="55"/>
         <v>4096</v>
       </c>
       <c r="V219" s="16"/>
@@ -33470,7 +32170,7 @@
         <v>10.2326</v>
       </c>
       <c r="F220" s="26">
-        <f>AVERAGE(C220:E220)</f>
+        <f t="shared" si="53"/>
         <v>10.263833333333332</v>
       </c>
       <c r="G220" s="16"/>
@@ -33484,7 +32184,7 @@
         <v>10.2864</v>
       </c>
       <c r="K220" s="26">
-        <f>AVERAGE(H220:J220)</f>
+        <f t="shared" si="54"/>
         <v>10.282933333333334</v>
       </c>
       <c r="L220" s="16"/>
@@ -33498,7 +32198,7 @@
         <v>10.2803</v>
       </c>
       <c r="P220" s="32">
-        <f>AVERAGE(M220:O220)</f>
+        <f t="shared" si="55"/>
         <v>10.279166666666667</v>
       </c>
       <c r="AF220" s="23"/>
@@ -33519,7 +32219,7 @@
         <v>2619</v>
       </c>
       <c r="F221" s="26">
-        <f>AVERAGE(C221:E221)</f>
+        <f t="shared" si="53"/>
         <v>2627</v>
       </c>
       <c r="G221" s="16"/>
@@ -33533,7 +32233,7 @@
         <v>2633</v>
       </c>
       <c r="K221" s="26">
-        <f>AVERAGE(H221:J221)</f>
+        <f t="shared" si="54"/>
         <v>2632</v>
       </c>
       <c r="L221" s="16"/>
@@ -33547,7 +32247,7 @@
         <v>2631</v>
       </c>
       <c r="P221" s="32">
-        <f>AVERAGE(M221:O221)</f>
+        <f t="shared" si="55"/>
         <v>2630.6666666666665</v>
       </c>
       <c r="AF221" s="23"/>
@@ -33569,7 +32269,7 @@
         <v>2639</v>
       </c>
       <c r="F222" s="26">
-        <f>AVERAGE(C222:E222)</f>
+        <f t="shared" si="53"/>
         <v>2639.3333333333335</v>
       </c>
       <c r="G222" s="16"/>
@@ -33583,7 +32283,7 @@
         <v>2639</v>
       </c>
       <c r="K222" s="26">
-        <f>AVERAGE(H222:J222)</f>
+        <f t="shared" si="54"/>
         <v>2639</v>
       </c>
       <c r="L222" s="16"/>
@@ -33597,7 +32297,7 @@
         <v>2639</v>
       </c>
       <c r="P222" s="32">
-        <f>AVERAGE(M222:O222)</f>
+        <f t="shared" si="55"/>
         <v>2638.3333333333335</v>
       </c>
       <c r="AG222" s="23"/>
@@ -33618,7 +32318,7 @@
         <v>2385</v>
       </c>
       <c r="F223" s="37">
-        <f>AVERAGE(C223:E223)</f>
+        <f t="shared" si="53"/>
         <v>2532.6666666666665</v>
       </c>
       <c r="G223" s="21"/>
@@ -33632,7 +32332,7 @@
         <v>2622</v>
       </c>
       <c r="K223" s="37">
-        <f>AVERAGE(H223:J223)</f>
+        <f t="shared" si="54"/>
         <v>2618</v>
       </c>
       <c r="L223" s="21"/>
@@ -33646,7 +32346,7 @@
         <v>2610</v>
       </c>
       <c r="P223" s="38">
-        <f>AVERAGE(M223:O223)</f>
+        <f t="shared" si="55"/>
         <v>2613.3333333333335</v>
       </c>
       <c r="AG223" s="23"/>
@@ -33829,7 +32529,7 @@
         <v>22754</v>
       </c>
       <c r="F237" s="26">
-        <f t="shared" ref="F237:F241" si="41">AVERAGE(C237:E237)</f>
+        <f t="shared" ref="F237:F241" si="56">AVERAGE(C237:E237)</f>
         <v>23463.666666666668</v>
       </c>
       <c r="G237" s="16"/>
@@ -33843,7 +32543,7 @@
         <v>22565</v>
       </c>
       <c r="K237" s="26">
-        <f t="shared" ref="K237:K245" si="42">AVERAGE(H237:J237)</f>
+        <f t="shared" ref="K237:K245" si="57">AVERAGE(H237:J237)</f>
         <v>22361.666666666668</v>
       </c>
       <c r="L237" s="16"/>
@@ -33857,7 +32557,7 @@
         <v>22584</v>
       </c>
       <c r="P237" s="32">
-        <f t="shared" ref="P237:P245" si="43">AVERAGE(M237:O237)</f>
+        <f t="shared" ref="P237:P245" si="58">AVERAGE(M237:O237)</f>
         <v>22631.333333333332</v>
       </c>
     </row>
@@ -33875,7 +32575,7 @@
         <v>4096</v>
       </c>
       <c r="F238" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>4096</v>
       </c>
       <c r="G238" s="16"/>
@@ -33889,7 +32589,7 @@
         <v>4096</v>
       </c>
       <c r="K238" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>4096</v>
       </c>
       <c r="L238" s="16"/>
@@ -33903,7 +32603,7 @@
         <v>4096</v>
       </c>
       <c r="P238" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>4096</v>
       </c>
     </row>
@@ -33921,7 +32621,7 @@
         <v>4096</v>
       </c>
       <c r="F239" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>4096</v>
       </c>
       <c r="G239" s="16"/>
@@ -33935,7 +32635,7 @@
         <v>4096</v>
       </c>
       <c r="K239" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>4096</v>
       </c>
       <c r="L239" s="16"/>
@@ -33949,7 +32649,7 @@
         <v>4096</v>
       </c>
       <c r="P239" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>4096</v>
       </c>
     </row>
@@ -33967,7 +32667,7 @@
         <v>1.4808600000000001</v>
       </c>
       <c r="F240" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>1.5266366666666666</v>
       </c>
       <c r="G240" s="16"/>
@@ -33981,7 +32681,7 @@
         <v>1.46855</v>
       </c>
       <c r="K240" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>1.4548733333333335</v>
       </c>
       <c r="L240" s="16"/>
@@ -33995,7 +32695,7 @@
         <v>1.4692099999999999</v>
       </c>
       <c r="P240" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>1.4724799999999998</v>
       </c>
     </row>
@@ -34013,7 +32713,7 @@
         <v>1.8164100000000001</v>
       </c>
       <c r="F241" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>1.8802100000000002</v>
       </c>
       <c r="G241" s="16"/>
@@ -34027,7 +32727,7 @@
         <v>1.9140600000000001</v>
       </c>
       <c r="K241" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>1.7421866666666668</v>
       </c>
       <c r="L241" s="16"/>
@@ -34041,7 +32741,7 @@
         <v>1.64453</v>
       </c>
       <c r="P241" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>1.6549466666666668</v>
       </c>
     </row>
@@ -34073,7 +32773,7 @@
         <v>0.89843799999999996</v>
       </c>
       <c r="K242" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>0.98828133333333323</v>
       </c>
       <c r="L242" s="16"/>
@@ -34087,7 +32787,7 @@
         <v>1.2890600000000001</v>
       </c>
       <c r="P242" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>1.1523433333333333</v>
       </c>
     </row>
@@ -34119,7 +32819,7 @@
         <v>375</v>
       </c>
       <c r="K243" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>371.66666666666669</v>
       </c>
       <c r="L243" s="16"/>
@@ -34133,7 +32833,7 @@
         <v>376</v>
       </c>
       <c r="P243" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>376.66666666666669</v>
       </c>
     </row>
@@ -34165,7 +32865,7 @@
         <v>490</v>
       </c>
       <c r="K244" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>446</v>
       </c>
       <c r="L244" s="16"/>
@@ -34179,7 +32879,7 @@
         <v>421</v>
       </c>
       <c r="P244" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>423.66666666666669</v>
       </c>
     </row>
@@ -34211,7 +32911,7 @@
         <v>230</v>
       </c>
       <c r="K245" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>253</v>
       </c>
       <c r="L245" s="16"/>
@@ -34225,7 +32925,7 @@
         <v>330</v>
       </c>
       <c r="P245" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>295</v>
       </c>
     </row>
@@ -34322,7 +33022,7 @@
         <v>8.6732300000000002</v>
       </c>
       <c r="F250" s="26">
-        <f>AVERAGE(C250:E250)</f>
+        <f t="shared" ref="F250:F257" si="59">AVERAGE(C250:E250)</f>
         <v>8.7702833333333334</v>
       </c>
       <c r="G250" s="16"/>
@@ -34336,7 +33036,7 @@
         <v>8.9491099999999992</v>
       </c>
       <c r="K250" s="26">
-        <f>AVERAGE(H250:J250)</f>
+        <f t="shared" ref="K250:K257" si="60">AVERAGE(H250:J250)</f>
         <v>8.6989766666666668</v>
       </c>
       <c r="L250" s="16"/>
@@ -34350,7 +33050,7 @@
         <v>8.5855499999999996</v>
       </c>
       <c r="P250" s="32">
-        <f>AVERAGE(M250:O250)</f>
+        <f t="shared" ref="P250:P257" si="61">AVERAGE(M250:O250)</f>
         <v>8.5662033333333323</v>
       </c>
     </row>
@@ -34368,7 +33068,7 @@
         <v>22822</v>
       </c>
       <c r="F251" s="26">
-        <f>AVERAGE(C251:E251)</f>
+        <f t="shared" si="59"/>
         <v>22822</v>
       </c>
       <c r="G251" s="16"/>
@@ -34382,7 +33082,7 @@
         <v>22565</v>
       </c>
       <c r="K251" s="26">
-        <f>AVERAGE(H251:J251)</f>
+        <f t="shared" si="60"/>
         <v>22565</v>
       </c>
       <c r="L251" s="16"/>
@@ -34396,7 +33096,7 @@
         <v>22533</v>
       </c>
       <c r="P251" s="32">
-        <f>AVERAGE(M251:O251)</f>
+        <f t="shared" si="61"/>
         <v>22533</v>
       </c>
     </row>
@@ -34414,7 +33114,7 @@
         <v>4096</v>
       </c>
       <c r="F252" s="26">
-        <f>AVERAGE(C252:E252)</f>
+        <f t="shared" si="59"/>
         <v>4096</v>
       </c>
       <c r="G252" s="16"/>
@@ -34428,7 +33128,7 @@
         <v>4096</v>
       </c>
       <c r="K252" s="26">
-        <f>AVERAGE(H252:J252)</f>
+        <f t="shared" si="60"/>
         <v>4096</v>
       </c>
       <c r="L252" s="16"/>
@@ -34442,7 +33142,7 @@
         <v>4096</v>
       </c>
       <c r="P252" s="32">
-        <f>AVERAGE(M252:O252)</f>
+        <f t="shared" si="61"/>
         <v>4096</v>
       </c>
     </row>
@@ -34460,7 +33160,7 @@
         <v>4096</v>
       </c>
       <c r="F253" s="26">
-        <f>AVERAGE(C253:E253)</f>
+        <f t="shared" si="59"/>
         <v>4096</v>
       </c>
       <c r="G253" s="16"/>
@@ -34474,7 +33174,7 @@
         <v>4096</v>
       </c>
       <c r="K253" s="26">
-        <f>AVERAGE(H253:J253)</f>
+        <f t="shared" si="60"/>
         <v>4096</v>
       </c>
       <c r="L253" s="16"/>
@@ -34488,7 +33188,7 @@
         <v>4096</v>
       </c>
       <c r="P253" s="32">
-        <f>AVERAGE(M253:O253)</f>
+        <f t="shared" si="61"/>
         <v>4096</v>
       </c>
     </row>
@@ -34506,7 +33206,7 @@
         <v>10.278600000000001</v>
       </c>
       <c r="F254" s="26">
-        <f>AVERAGE(C254:E254)</f>
+        <f t="shared" si="59"/>
         <v>10.167260000000001</v>
       </c>
       <c r="G254" s="16"/>
@@ -34520,7 +33220,7 @@
         <v>9.8495299999999997</v>
       </c>
       <c r="K254" s="26">
-        <f>AVERAGE(H254:J254)</f>
+        <f t="shared" si="60"/>
         <v>10.136876666666666</v>
       </c>
       <c r="L254" s="16"/>
@@ -34534,7 +33234,7 @@
         <v>10.2521</v>
       </c>
       <c r="P254" s="32">
-        <f>AVERAGE(M254:O254)</f>
+        <f t="shared" si="61"/>
         <v>10.275233333333333</v>
       </c>
     </row>
@@ -34552,7 +33252,7 @@
         <v>2631</v>
       </c>
       <c r="F255" s="26">
-        <f>AVERAGE(C255:E255)</f>
+        <f t="shared" si="59"/>
         <v>2602.3333333333335</v>
       </c>
       <c r="G255" s="16"/>
@@ -34566,7 +33266,7 @@
         <v>2521</v>
       </c>
       <c r="K255" s="26">
-        <f>AVERAGE(H255:J255)</f>
+        <f t="shared" si="60"/>
         <v>2594.6666666666665</v>
       </c>
       <c r="L255" s="16"/>
@@ -34580,7 +33280,7 @@
         <v>2624</v>
       </c>
       <c r="P255" s="32">
-        <f>AVERAGE(M255:O255)</f>
+        <f t="shared" si="61"/>
         <v>2630</v>
       </c>
     </row>
@@ -34598,7 +33298,7 @@
         <v>2641</v>
       </c>
       <c r="F256" s="26">
-        <f>AVERAGE(C256:E256)</f>
+        <f t="shared" si="59"/>
         <v>2630.3333333333335</v>
       </c>
       <c r="G256" s="16"/>
@@ -34612,7 +33312,7 @@
         <v>2606</v>
       </c>
       <c r="K256" s="26">
-        <f>AVERAGE(H256:J256)</f>
+        <f t="shared" si="60"/>
         <v>2629</v>
       </c>
       <c r="L256" s="16"/>
@@ -34626,7 +33326,7 @@
         <v>2638</v>
       </c>
       <c r="P256" s="32">
-        <f>AVERAGE(M256:O256)</f>
+        <f t="shared" si="61"/>
         <v>2639.6666666666665</v>
       </c>
     </row>
@@ -34644,7 +33344,7 @@
         <v>2632</v>
       </c>
       <c r="F257" s="37">
-        <f>AVERAGE(C257:E257)</f>
+        <f t="shared" si="59"/>
         <v>2586.6666666666665</v>
       </c>
       <c r="G257" s="21"/>
@@ -34658,7 +33358,7 @@
         <v>2443</v>
       </c>
       <c r="K257" s="37">
-        <f>AVERAGE(H257:J257)</f>
+        <f t="shared" si="60"/>
         <v>2569.6666666666665</v>
       </c>
       <c r="L257" s="21"/>
@@ -34672,7 +33372,7 @@
         <v>2617</v>
       </c>
       <c r="P257" s="38">
-        <f>AVERAGE(M257:O257)</f>
+        <f t="shared" si="61"/>
         <v>2627.3333333333335</v>
       </c>
     </row>

--- a/Ceph/rados bench.xlsx
+++ b/Ceph/rados bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Studied_in_NOSLab\Ceph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A03E9-D551-42E2-9316-5FF4207F10DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E700262-5278-444A-AA53-3483F10941FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80D8DAFA-43CE-4385-8FD2-BDFA35D505DF}"/>
   </bookViews>
@@ -4274,8 +4274,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Bandwidth</a:t>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
@@ -4824,8 +4826,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Bandwidth</a:t>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
@@ -5236,13 +5240,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>num</a:t>
+                  <a:t>Configurations of OSDs</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                  <a:t> of OSDs</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5357,7 +5356,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Bandwidth</a:t>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
@@ -10590,8 +10589,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Bandwidth</a:t>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
@@ -11153,8 +11154,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Bandwidth</a:t>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Bandwidth (MB/s)</a:t>
                 </a:r>
                 <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
@@ -19006,8 +19009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF969ED-AFAC-40DE-9C4A-1EE07359AD41}">
   <dimension ref="B1:BJ280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R203" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS233" sqref="AR233:AS233"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="AG196" sqref="AG196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/Ceph/rados bench.xlsx
+++ b/Ceph/rados bench.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Studied_in_NOSLab\Ceph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkcch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E700262-5278-444A-AA53-3483F10941FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4EDC1-42AD-4E0E-968B-7F3694A17404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80D8DAFA-43CE-4385-8FD2-BDFA35D505DF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80D8DAFA-43CE-4385-8FD2-BDFA35D505DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="67">
   <si>
     <t>Ceph rados bench</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,30 @@
   </si>
   <si>
     <t>1 HDD + Samsung SSD 860 x 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 HDD + 1 SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 HDD + 2 SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 HDD + 3 SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 SSD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4493,7 +4517,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4504,11 +4530,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4516,26 +4546,17 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$H$126,Sheet1!$M$126,Sheet1!$R$126,Sheet1!$W$126,Sheet1!$AB$126,Sheet1!$H$163)</c:f>
+              <c:f>(Sheet1!$C$233,Sheet1!$H$233,Sheet1!$M$233)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 osds</c:v>
+                  <c:v>1 HDD + 1 SSD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3 osds</c:v>
+                  <c:v>1 HDD + 2 SSD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4 osds</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5 osds</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6 osds</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2 osds</c:v>
+                  <c:v>1 HDD + 3 SSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4605,26 +4626,17 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$H$126,Sheet1!$M$126,Sheet1!$R$126,Sheet1!$W$126,Sheet1!$AB$126,Sheet1!$H$163)</c:f>
+              <c:f>(Sheet1!$C$233,Sheet1!$H$233,Sheet1!$M$233)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 osds</c:v>
+                  <c:v>1 HDD + 1 SSD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3 osds</c:v>
+                  <c:v>1 HDD + 2 SSD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4 osds</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5 osds</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6 osds</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2 osds</c:v>
+                  <c:v>1 HDD + 3 SSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4688,68 +4700,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>num</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                  <a:t> of OSDs</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44691127916152046"/>
-              <c:y val="0.94259840481819135"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
@@ -5045,7 +4995,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5056,11 +5008,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -10255,7 +10211,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10266,11 +10224,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -10278,26 +10240,17 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$H$126,Sheet1!$M$126,Sheet1!$R$126,Sheet1!$W$126,Sheet1!$AB$126,Sheet1!$H$163)</c:f>
+              <c:f>(Sheet1!$C$199,Sheet1!$H$199,Sheet1!$M$199)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 osds</c:v>
+                  <c:v>2 SSD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3 osds</c:v>
+                  <c:v>3 SSD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4 osds</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5 osds</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6 osds</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2 osds</c:v>
+                  <c:v>4 SSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10367,26 +10320,17 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Sheet1!$H$126,Sheet1!$M$126,Sheet1!$R$126,Sheet1!$W$126,Sheet1!$AB$126,Sheet1!$H$163)</c:f>
+              <c:f>(Sheet1!$C$199,Sheet1!$H$199,Sheet1!$M$199)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2 osds</c:v>
+                  <c:v>2 SSD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3 osds</c:v>
+                  <c:v>3 SSD</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4 osds</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5 osds</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6 osds</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2 osds</c:v>
+                  <c:v>4 SSD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10450,68 +10394,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>num</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                  <a:t> of OSDs</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44691127916152046"/>
-              <c:y val="0.94259840481819135"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
@@ -18405,14 +18287,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>640772</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>268679</xdr:colOff>
+      <xdr:colOff>216724</xdr:colOff>
       <xdr:row>218</xdr:row>
       <xdr:rowOff>203789</xdr:rowOff>
     </xdr:to>
@@ -18633,16 +18515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>640772</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>268679</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>203789</xdr:rowOff>
+      <xdr:colOff>216724</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>255743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19009,8 +18891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF969ED-AFAC-40DE-9C4A-1EE07359AD41}">
   <dimension ref="B1:BJ280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="AG196" sqref="AG196"/>
+    <sheetView tabSelected="1" topLeftCell="R197" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG232" sqref="AG232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -31231,21 +31113,21 @@
     <row r="199" spans="2:31" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
       <c r="C199" s="8" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="24"/>
       <c r="G199" s="9"/>
       <c r="H199" s="8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I199" s="9"/>
       <c r="J199" s="9"/>
       <c r="K199" s="24"/>
       <c r="L199" s="9"/>
       <c r="M199" s="8" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N199" s="9"/>
       <c r="O199" s="9"/>
@@ -32389,21 +32271,21 @@
     <row r="233" spans="2:38" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B233" s="7"/>
       <c r="C233" s="8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
       <c r="F233" s="24"/>
       <c r="G233" s="9"/>
       <c r="H233" s="8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
       <c r="K233" s="24"/>
       <c r="L233" s="9"/>
       <c r="M233" s="8" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="N233" s="9"/>
       <c r="O233" s="9"/>
